--- a/biology/Zoologie/Dino_Riders/Dino_Riders.xlsx
+++ b/biology/Zoologie/Dino_Riders/Dino_Riders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dino Riders (Dino-Riders) est une série télévisée d'animation américano-canadienne en 14 épisodes de 23 minutes, créée par Paul Kirschner, produite par Marvel Productions, animée en Corée du Sud par Hanho Heung-Up et AKOM  et diffusée entre le 2 octobre et le 31 décembre 1988 en syndication.
 En France, les treize premiers épisodes ont été diffusés en 1989 sur TF1 et rediffusés sur La Cinq.
-La propriété de la série est passée à Disney en 2001 lorsque Disney a acquis Fox Kids Worldwide, qui comprend également Marvel Productions. Mais la série n'est pas disponible sur Disney+[1],[2],[3].
+La propriété de la série est passée à Disney en 2001 lorsque Disney a acquis Fox Kids Worldwide, qui comprend également Marvel Productions. Mais la série n'est pas disponible sur Disney+.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série raconte l'histoire des Valoriens, une paisible race d'humains aux pouvoirs télépathiques dont la planète, Valoria, est menacée par l'invasion de l'Empire Rulon, une race animale humanoïde belliqueuse et cruelle. 400 survivants Valoriens seulement parviennent à s'échapper grâce à l'expérimental S.T.E.P. (Space-Time Energy Projector pour "projecteur d'énergie espace-temps") et se retrouvent propulsés sur la planète Terre, alors en période Jurassique. Cependant, l'Empereur Krulos et ses principaux lieutenants se retrouvent accidentellement projetés à leur tour sur la planète Terre par le rayon du S.T.E.P.
 À nouveau face-à-face dans cet outre-monde, les Valoriens et les Rulons vont une fois de plus se livrer bataille. Coincés dans cette planète sauvage, les combattants n'ont d'autres choix que de recruter les dinosaures comme montures, qu'ils vont alors, tels des véhicules, équiper de blindage et d'armes lourdes, notamment des canons laser. 
@@ -549,25 +563,105 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix anglaises
-Dan Gilvezan : Questar
+          <t>Voix anglaises</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dan Gilvezan : Questar
 Noelle North : Serena
 Chris Latta : Rasp
 Charles Adler : Hammerhead
 Frank Welker : Glyde
 Peter Cullen : Antor
 Rob Paulsen : Faze
-Jack Angel, Cam Clarke, Townsend Coleman, Joe Colligan, Ike Eisenmann, Patrick Pinney : voix supplémentaires
-Voix françaises
-Doublage télévisé
-Marc François : Questar
+Jack Angel, Cam Clarke, Townsend Coleman, Joe Colligan, Ike Eisenmann, Patrick Pinney : voix supplémentaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Doublage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Doublage télévisé</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marc François : Questar
 Danièle Douet : Serena
 Serge Bourrier : Rasp et Turret
 Emmanuel Curtil : Llahd et Yungstar
 Jean Violette : Mind-Zei et Gunnur
-Michel Barbey : Krulos
-Doublage vidéo
-Bernard Métraux : Questar
+Michel Barbey : Krulos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Doublage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Doublage vidéo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bernard Métraux : Questar
 Caroline Beaune : Serena
 Thierry Ragueneau : Yungstar et Ikon
 Marie-Laure Beneston : Llahd
@@ -577,31 +671,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dino_Riders</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Réalisation : Steven Hahn, Ray Lee
 Character design : Steve Gordon
@@ -612,34 +708,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dino_Riders</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>DinoRiders (Valoriens)
-Les Valoriens, aussi appelés les DinoRiders parce qu'ils "chevauchent" les dinosaures comme des cavaliers, ressemblent trait pour trait à des humains de type caucasien, leur chef Questar est blond.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DinoRiders (Valoriens)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Valoriens, aussi appelés les DinoRiders parce qu'ils "chevauchent" les dinosaures comme des cavaliers, ressemblent trait pour trait à des humains de type caucasien, leur chef Questar est blond.
 Questar : Meneur des Valoriens.
 Yungstar : Jeune homme courageux qui passe souvent à l'action il est un sacré tireur.
 Serena : La seule Femme du groupe.
@@ -650,20 +751,127 @@
 Icon : Il est le plus expert des Valoriens, il est le bras droit de Questar.
 Tagg : Officier Valorien.
 Aero : Rival de Yungstar.
-Vector : Autre bras droit de Questar.
-Rulons (Vipers/Sharrkurs/Antmen)
-Les Rulons, commandés par l'humanoïde à tête de crapaud, Krulos, sont composés de différentes races et sont tous de sexe masculin. Les principales races sont les Vipers ("vipères"), qui ont la peau verte olive et une tête de cobra, les Sharrkurs ("requins") à la peau bleue et la tête de requin-marteau, et enfin les Antmen ("homme-fourmis") qui eux ont une tête de fourmi et la peau brune.
+Vector : Autre bras droit de Questar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rulons (Vipers/Sharrkurs/Antmen)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Rulons, commandés par l'humanoïde à tête de crapaud, Krulos, sont composés de différentes races et sont tous de sexe masculin. Les principales races sont les Vipers ("vipères"), qui ont la peau verte olive et une tête de cobra, les Sharrkurs ("requins") à la peau bleue et la tête de requin-marteau, et enfin les Antmen ("homme-fourmis") qui eux ont une tête de fourmi et la peau brune.
 Krulos : Souverain de l'Empire Rulon à tête de crapaud.
 Krok : Soldat Rulon à tête de crocodile.
 Rasp : Soldat Rulon à tête de cobra.
 Hammerhead : Soldat Rulon à tête de requin-marteau.
 Antor : Soldat Rulon à tête de fourmi.
 Skate : Soldat Rulon à tête de raie.
-Lokus : Soldat Rulon à tête de sauterelle.
-Dinosaures
-Contre toutes vraisemblances, les différentes espèces de dinosaures sont anachroniques. Certaines créatures, le tricératops ou le tyrannosaurus rex, sont de l'ère Crétacé, tandis que certaines, comme le kentrosaurus, sont du Jurassique et que d'autres dont le placerias sont du Trias.Dans l'épisode Aventure de l'âge de glace (Ice Age Adventure) on retrouvera d'autres espèces préhistorique de l'ère pléistocène, comme le mammouth.
-DinoRiders
-diplodocus
+Lokus : Soldat Rulon à tête de sauterelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contre toutes vraisemblances, les différentes espèces de dinosaures sont anachroniques. Certaines créatures, le tricératops ou le tyrannosaurus rex, sont de l'ère Crétacé, tandis que certaines, comme le kentrosaurus, sont du Jurassique et que d'autres dont le placerias sont du Trias.Dans l'épisode Aventure de l'âge de glace (Ice Age Adventure) on retrouvera d'autres espèces préhistorique de l'ère pléistocène, comme le mammouth.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>DinoRiders</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>diplodocus
 deinonychus
 quetzalcoatlus
 styracosaurus
@@ -677,9 +885,47 @@
 dimétrodon
 protocératops
 pachyrhinosaurus
-chasmosaurus
-Rulons
-tyrannosaure
+chasmosaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rulons</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>tyrannosaure
 tricératops
 deinonychus
 ptéranodon
@@ -688,40 +934,80 @@
 saurolophus
 kentrosaurus
 placerias
-quetzalcoatlus
-Âge de Glace
-mammouth
+quetzalcoatlus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Âge de Glace</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>mammouth
 Smilodon
 Megatherium
 Andrewsarchus</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dino_Riders</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le début de l'aventure
 La revanche des Rulons
@@ -740,73 +1026,156 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dino_Riders</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série était destinée à promouvoir la gamme de jouet éponyme du fabricant de jouets américain Tyco Toys. Aux États-Unis, les épisodes sont rapidement sortis en vidéo (VHS), en Europe ils sont désormais disponibles en DVD.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dino_Riders</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jouets
-Vus à la télé
-Sur le modèle de M.A.S.K., série animée également créé à but mercantile et promotionnel, les Dino Riders sont avant tout une gamme de figurines et véhicules, ici des dinosaures du Jurassique, Mattel.
-Gamme
-Series 1
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jouets</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Vus à la télé</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le modèle de M.A.S.K., série animée également créé à but mercantile et promotionnel, les Dino Riders sont avant tout une gamme de figurines et véhicules, ici des dinosaures du Jurassique, Mattel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jouets</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Gamme</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Series 1
 Series 2
 Series 3
-Âge de Glace
-Bande dessinée
-Chaque emballage de jouet contenait un des deux volumes de la mini bande-dessinée Dino Riders, dessinée dans le style graphique du comics américain.
+Âge de Glace</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dino_Riders</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dino_Riders</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque emballage de jouet contenait un des deux volumes de la mini bande-dessinée Dino Riders, dessinée dans le style graphique du comics américain.
 </t>
         </is>
       </c>
